--- a/lib/sample_books/workbook.xlsx
+++ b/lib/sample_books/workbook.xlsx
@@ -5,6 +5,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId2"/>
+  </pivotCaches>
 </workbook>
 </file>
 
@@ -14,7 +17,7 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -22,33 +25,40 @@
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="11"/>
+      <sz val="14"/>
       <family val="1"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11"/>
-      <family val="1"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11"/>
-      <family val="1"/>
-      <u val="true"/>
+      <color rgb="FFFFFFFF"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333399"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -67,13 +77,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
-    <xf borderId="0" numFmtId="0" fontId="1" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="0" numFmtId="0" fontId="2" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="0" numFmtId="0" fontId="3" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -83,83 +93,601 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" invalid="1" refreshOnLoad="1" recordCount="0">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E21" sheet="Data Sheet"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="0"/>
+    </cacheField>
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems count="0"/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems count="0"/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="0">
+      <sharedItems count="0"/>
+    </cacheField>
+    <cacheField name="Place" numFmtId="0">
+      <sharedItems count="0"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="G4:L17"/>
+  <pivotFields count="5">
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.184831460674157"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.38988764044944"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.132584269662921"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.989887640449439"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.932584269662922"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.7325842696629215"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Donald Duck</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>The tree top Street</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>2013-06-25</t>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Rusty</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Brown dish</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>2013-03-25</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Toby</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>White napkin</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>2013-04-01</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Rusty</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Red pencil</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>2013-03-25</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Patsy</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Red pencil</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>2013-03-25</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>PLK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Clumsy</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Blue glass</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>2013-04-01</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Toby</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Blue glass</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>2013-03-25</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>PLK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>Mickey</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Flower land</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>2013-06-25</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Blue glass</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>2013-04-01</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>PLK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Clumsy</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Blue glass</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>2013-04-01</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Mickey</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Blue glass</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>2013-03-25</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>PLK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Patsy</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Yellow spoon</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>2013-04-01</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>PLK</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Rusty</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Blue glass</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>2013-03-25</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>PLK</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Donald</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>White napkin</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>2013-03-25</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Clumsy</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Red pencil</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>2013-04-01</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Rusty</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Blue glass</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>2013-04-01</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>PLK</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Clumsy</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Blue glass</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>2013-04-01</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Donald</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Red pencil</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>2013-04-01</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>PLK</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Patsy</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>White napkin</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>2013-04-01</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>PLK</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Toby</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Yellow spoon</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>2013-04-01</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
         <v>80.0</v>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>PLK</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Patsy</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Blue glass</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>2013-04-01</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>PLK</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Rusty</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Blue glass</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>2013-03-25</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>PLK</t>
+        </is>
       </c>
     </row>
   </sheetData>
